--- a/results/FrequencyTables/26581162_sg362F.v4.xlsx
+++ b/results/FrequencyTables/26581162_sg362F.v4.xlsx
@@ -465,43 +465,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.0408163265306122</v>
+        <v>0.0337837837837838</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.0105105105105105</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0285285285285285</v>
       </c>
       <c r="E2">
-        <v>0.969387755102041</v>
+        <v>0.874624624624625</v>
       </c>
       <c r="F2">
-        <v>0.0204081632653061</v>
+        <v>0.027027027027027</v>
       </c>
       <c r="G2">
-        <v>0.948979591836735</v>
+        <v>0.879129129129129</v>
       </c>
       <c r="H2">
-        <v>0.948979591836735</v>
+        <v>0.873873873873874</v>
       </c>
       <c r="I2">
-        <v>0.0204081632653061</v>
+        <v>0.00975975975975976</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.00600600600600601</v>
       </c>
       <c r="K2">
-        <v>0.0408163265306122</v>
+        <v>0.0675675675675676</v>
       </c>
       <c r="L2">
-        <v>0.959183673469388</v>
+        <v>0.937687687687688</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.0195195195195195</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.0045045045045045</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -513,25 +513,25 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.000750750750750751</v>
       </c>
       <c r="S2">
-        <v>0.112244897959184</v>
+        <v>0.157657657657658</v>
       </c>
       <c r="T2">
-        <v>0.0102040816326531</v>
+        <v>0.00225225225225225</v>
       </c>
       <c r="U2">
-        <v>0.0408163265306122</v>
+        <v>0.0442942942942943</v>
       </c>
       <c r="V2">
-        <v>0.0408163265306122</v>
+        <v>0.0578078078078078</v>
       </c>
       <c r="W2">
-        <v>0.0204081632653061</v>
+        <v>0.0773273273273273</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.0307807807807808</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,46 +539,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.048048048048048</v>
       </c>
       <c r="C3">
-        <v>0.959183673469388</v>
+        <v>0.921921921921922</v>
       </c>
       <c r="D3">
-        <v>0.0102040816326531</v>
+        <v>0.0533033033033033</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.00975975975975976</v>
       </c>
       <c r="F3">
-        <v>0.969387755102041</v>
+        <v>0.921921921921922</v>
       </c>
       <c r="G3">
-        <v>0.0408163265306122</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00750750750750751</v>
       </c>
       <c r="I3">
-        <v>0.0408163265306122</v>
+        <v>0.0578078078078078</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0202702702702703</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00375375375375375</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.975225225225225</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.003003003003003</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.000750750750750751</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -587,25 +587,25 @@
         <v>1</v>
       </c>
       <c r="R3">
-        <v>0.959183673469388</v>
+        <v>0.954954954954955</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00375375375375375</v>
       </c>
       <c r="T3">
-        <v>0.989795918367347</v>
+        <v>0.942942942942943</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.00750750750750751</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.000750750750750751</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00225225225225225</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0195195195195195</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,40 +613,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.306122448979592</v>
+        <v>0.188438438438438</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00375375375375375</v>
       </c>
       <c r="D4">
-        <v>0.0408163265306122</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="E4">
-        <v>0.0306122448979592</v>
+        <v>0.10960960960961</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0255255255255255</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.021021021021021</v>
       </c>
       <c r="H4">
-        <v>0.0102040816326531</v>
+        <v>0.0720720720720721</v>
       </c>
       <c r="I4">
-        <v>0.938775510204082</v>
+        <v>0.924174174174174</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.972222222222222</v>
       </c>
       <c r="K4">
-        <v>0.959183673469388</v>
+        <v>0.931681681681682</v>
       </c>
       <c r="L4">
-        <v>0.0408163265306122</v>
+        <v>0.0570570570570571</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.000750750750750751</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -655,31 +655,31 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0102040816326531</v>
+        <v>0.0015015015015015</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.0045045045045045</v>
       </c>
       <c r="S4">
-        <v>0.887755102040816</v>
+        <v>0.837837837837838</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.0540540540540541</v>
       </c>
       <c r="U4">
-        <v>0.0102040816326531</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="V4">
-        <v>0.959183673469388</v>
+        <v>0.93993993993994</v>
       </c>
       <c r="W4">
-        <v>0.979591836734694</v>
+        <v>0.915915915915916</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.946696696696697</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.653061224489796</v>
+        <v>0.72972972972973</v>
       </c>
       <c r="C5">
-        <v>0.0408163265306122</v>
+        <v>0.0638138138138138</v>
       </c>
       <c r="D5">
-        <v>0.948979591836735</v>
+        <v>0.864114114114114</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.00600600600600601</v>
       </c>
       <c r="F5">
-        <v>0.0102040816326531</v>
+        <v>0.0255255255255255</v>
       </c>
       <c r="G5">
-        <v>0.0102040816326531</v>
+        <v>0.0457957957957958</v>
       </c>
       <c r="H5">
-        <v>0.0408163265306122</v>
+        <v>0.0465465465465465</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00750750750750751</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0015015015015015</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.000750750750750751</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0015015015015015</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0045045045045045</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.992492492492492</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.999249249249249</v>
       </c>
       <c r="P5">
-        <v>0.989795918367347</v>
+        <v>0.998498498498498</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0408163265306122</v>
+        <v>0.0397897897897898</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.000750750750750751</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.000750750750750751</v>
       </c>
       <c r="U5">
-        <v>0.948979591836735</v>
+        <v>0.892642642642643</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.000750750750750751</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.00375375375375375</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.0015015015015015</v>
       </c>
     </row>
   </sheetData>
